--- a/get_dash/user_expense.xlsx
+++ b/get_dash/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -462,15 +477,24 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>2021-08-29</t>
         </is>
@@ -483,15 +507,24 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2021-06-14</t>
         </is>
@@ -504,15 +537,24 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
+      <c r="C4" t="n">
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>entertain</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>80</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>2021-08-20</t>
         </is>
@@ -525,15 +567,24 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>422</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>2021-06-14</t>
         </is>
@@ -546,15 +597,24 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>clothing</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2021-08-21</t>
         </is>
@@ -565,17 +625,26 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>clothing</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="G7" t="n">
         <v>20</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -586,17 +655,26 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>20</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -607,17 +685,26 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="G9" t="n">
         <v>4.8</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -627,16 +714,27 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>others</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>20</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -646,18 +744,253 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>entertainment</t>
-        </is>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
       </c>
       <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>40</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>clothing</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>30</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>300</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>clothing</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>40</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>entertain</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>25</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>26</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2021-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>clothing</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2021-09-02</t>
         </is>
       </c>
     </row>

--- a/get_dash/user_expense.xlsx
+++ b/get_dash/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -486,15 +491,18 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>10</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2021-08-29</t>
         </is>
@@ -516,15 +524,18 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>20</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>2021-06-14</t>
         </is>
@@ -546,15 +557,18 @@
       <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>entertain</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>80</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>70</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>2021-08-20</t>
         </is>
@@ -576,15 +590,18 @@
       <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>422</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>2021-06-14</t>
         </is>
@@ -606,15 +623,18 @@
       <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>clothing</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>60.9</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>2021-08-21</t>
         </is>
@@ -636,15 +656,18 @@
       <c r="E7" t="n">
         <v>6</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>clothing</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>20</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -666,15 +689,18 @@
       <c r="E8" t="n">
         <v>7</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>20</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -696,15 +722,18 @@
       <c r="E9" t="n">
         <v>8</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>4.8</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -726,15 +755,18 @@
       <c r="E10" t="n">
         <v>9</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>others</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>20</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -756,15 +788,18 @@
       <c r="E11" t="n">
         <v>10</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>40</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -786,15 +821,18 @@
       <c r="E12" t="n">
         <v>11</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>40</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -816,15 +854,18 @@
       <c r="E13" t="n">
         <v>12</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>others</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>20</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -846,15 +887,18 @@
       <c r="E14" t="n">
         <v>13</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>clothing</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>30</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>2021-09-01</t>
         </is>
@@ -876,15 +920,18 @@
       <c r="E15" t="n">
         <v>14</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>transport</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>300</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>2021-09-03</t>
         </is>
@@ -906,15 +953,18 @@
       <c r="E16" t="n">
         <v>15</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>clothing</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>40</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>2021-08-31</t>
         </is>
@@ -933,16 +983,19 @@
       <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>entertain</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>25</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>2021-09-01</t>
         </is>
@@ -955,18 +1008,21 @@
       <c r="B18" t="n">
         <v>17</v>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>26</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>2021-09-02</t>
         </is>
@@ -976,21 +1032,47 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>clothing</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>10</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>2021-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>clothing</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>40</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2021-08-20</t>
         </is>
       </c>
     </row>

--- a/get_dash/user_expense.xlsx
+++ b/get_dash/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -459,18 +454,15 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>2021-08-29</t>
         </is>
@@ -478,20 +470,17 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>2021-06-14</t>
         </is>
@@ -499,20 +488,17 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>transportation</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>80</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>2021-08-20</t>
         </is>
@@ -520,20 +506,17 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>422</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2021-06-14</t>
         </is>
@@ -541,20 +524,17 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>clothing</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>68.7</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>2021-08-21</t>
         </is>
@@ -562,20 +542,17 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>clothing</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>entertain</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -583,20 +560,17 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>clothing</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>entertain</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
@@ -604,22 +578,109 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>food</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>clothing</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>entertain</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2021-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2021-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>clothing</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2021-09-04</t>
         </is>
       </c>
     </row>

--- a/get_dash/user_expense.xlsx
+++ b/get_dash/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,6 +684,20 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>123</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
